--- a/Documents/TestCases.xlsx
+++ b/Documents/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\TEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\NetBeansProjects\Proyecto_Bases_2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -464,195 +464,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -991,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,95 +1773,67 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>67</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
-        <v>68</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="1">
-        <v>69</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
-        <v>70</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
-        <v>71</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
-        <v>72</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>73</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E75">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",G3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/TestCases.xlsx
+++ b/Documents/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Close the window with products on the shopping cart</t>
   </si>
   <si>
-    <t>Close the application with products on the shopping cart</t>
-  </si>
-  <si>
     <t>The shopping cart is empty now</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>The country is removed</t>
-  </si>
-  <si>
-    <t>Make a purchase without a payment method</t>
   </si>
   <si>
     <t>Make a purchase</t>
@@ -473,7 +467,1297 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="135">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -812,14 +2096,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -836,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -850,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -867,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -878,13 +2162,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -895,13 +2179,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -915,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -929,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -943,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -957,7 +2241,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -971,7 +2255,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -985,7 +2269,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -999,7 +2283,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1010,24 +2294,24 @@
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1035,13 +2319,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1049,13 +2333,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1063,13 +2347,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1080,10 +2364,10 @@
         <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1091,13 +2375,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1105,13 +2389,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1125,7 +2409,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1139,7 +2423,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1147,13 +2431,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1167,7 +2451,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1181,7 +2465,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1189,13 +2473,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1206,10 +2490,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1220,10 +2504,10 @@
         <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1231,13 +2515,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1251,7 +2535,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1265,7 +2549,7 @@
         <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1273,13 +2557,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1293,7 +2577,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1307,7 +2591,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1315,13 +2599,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1335,7 +2619,7 @@
         <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1349,7 +2633,7 @@
         <v>71</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -1357,13 +2641,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1377,7 +2661,7 @@
         <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -1391,7 +2675,7 @@
         <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -1399,13 +2683,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1419,7 +2703,7 @@
         <v>82</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1433,7 +2717,7 @@
         <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1441,13 +2725,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -1455,13 +2739,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -1469,13 +2753,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1483,13 +2767,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -1497,13 +2781,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -1511,10 +2795,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>5</v>
@@ -1528,10 +2812,10 @@
         <v>99</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -1539,13 +2823,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -1555,8 +2839,8 @@
       <c r="C53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>102</v>
+      <c r="D53" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>5</v>
@@ -1567,10 +2851,10 @@
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
@@ -1581,10 +2865,10 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>5</v>
@@ -1595,7 +2879,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
@@ -1609,10 +2893,10 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -1623,10 +2907,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
@@ -1637,10 +2921,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>5</v>
@@ -1651,10 +2935,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
@@ -1665,10 +2949,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>5</v>
@@ -1679,10 +2963,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>5</v>
@@ -1693,10 +2977,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -1707,10 +2991,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>5</v>
@@ -1721,10 +3005,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>5</v>
@@ -1734,43 +3018,22 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="D66" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>66</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
@@ -1815,26 +3078,246 @@
       <c r="E75" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E75">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E3)))</formula>
+  <conditionalFormatting sqref="E69:E75 E50 E53:E65">
+    <cfRule type="containsText" dxfId="89" priority="70" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="72" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="59" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="60" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E44">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="26" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="74" priority="55" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="56" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TestCases.xlsx
+++ b/Documents/TestCases.xlsx
@@ -467,667 +467,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="69">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2096,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,7 +2183,7 @@
         <v>103</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -2857,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -2871,7 +2211,7 @@
         <v>106</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -2885,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -2899,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -2913,7 +2253,7 @@
         <v>110</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -2927,7 +2267,7 @@
         <v>113</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -2941,7 +2281,7 @@
         <v>114</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -2955,7 +2295,7 @@
         <v>117</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -2969,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -2983,7 +2323,7 @@
         <v>121</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -2997,7 +2337,7 @@
         <v>124</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -3011,7 +2351,7 @@
         <v>125</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -3078,234 +2418,234 @@
       <c r="E75" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E69:E75 E50 E53:E65">
-    <cfRule type="containsText" dxfId="89" priority="70" operator="containsText" text="Error">
+  <conditionalFormatting sqref="E69:E75 E50">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="72" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="59" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="60" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E44">
-    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="26" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="55" priority="26" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="54" priority="27" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="74" priority="55" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="56" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="56" priority="37" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="38" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Error">
+  <conditionalFormatting sqref="E52:E65">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E52)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/TestCases.xlsx
+++ b/Documents/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\NetBeansProjects\Proyecto_Bases_2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyner\Desktop\Universidad\I Semestre 2020\Bases de Datos I\Proyecto_Bases_2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,11 +458,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,6 +1542,7 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -1553,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -2419,245 +2421,245 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E69:E75 E50">
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="67" priority="74" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="66" priority="75" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="65" priority="70" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="64" priority="71" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="63" priority="72" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E44">
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="56" priority="28" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="26" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="55" priority="29" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="27" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="54" priority="30" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E65">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Approved">
+      <formula>NOT(ISERROR(SEARCH("Approved",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH("Approved",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E65">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Approved">
-      <formula>NOT(ISERROR(SEARCH("Approved",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
